--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Spon1-App.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Spon1-App.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>App</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.7773960801211</v>
+        <v>0.8011370000000001</v>
       </c>
       <c r="H2">
-        <v>10.7773960801211</v>
+        <v>2.403411</v>
       </c>
       <c r="I2">
-        <v>0.5709480009542438</v>
+        <v>0.03767782325830066</v>
       </c>
       <c r="J2">
-        <v>0.5709480009542438</v>
+        <v>0.03767782325830066</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="N2">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="O2">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="P2">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="Q2">
-        <v>1359.736283369394</v>
+        <v>101.6897724054723</v>
       </c>
       <c r="R2">
-        <v>1359.736283369394</v>
+        <v>915.2079516492511</v>
       </c>
       <c r="S2">
-        <v>0.1149424807120327</v>
+        <v>0.007434941729812974</v>
       </c>
       <c r="T2">
-        <v>0.1149424807120327</v>
+        <v>0.007434941729812978</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.7773960801211</v>
+        <v>0.8011370000000001</v>
       </c>
       <c r="H3">
-        <v>10.7773960801211</v>
+        <v>2.403411</v>
       </c>
       <c r="I3">
-        <v>0.5709480009542438</v>
+        <v>0.03767782325830066</v>
       </c>
       <c r="J3">
-        <v>0.5709480009542438</v>
+        <v>0.03767782325830066</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="N3">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="O3">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="P3">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="Q3">
-        <v>1627.591988364662</v>
+        <v>122.0888097907683</v>
       </c>
       <c r="R3">
-        <v>1627.591988364662</v>
+        <v>1098.799288116915</v>
       </c>
       <c r="S3">
-        <v>0.1375851060369483</v>
+        <v>0.008926396088656545</v>
       </c>
       <c r="T3">
-        <v>0.1375851060369483</v>
+        <v>0.008926396088656549</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.7773960801211</v>
+        <v>0.8011370000000001</v>
       </c>
       <c r="H4">
-        <v>10.7773960801211</v>
+        <v>2.403411</v>
       </c>
       <c r="I4">
-        <v>0.5709480009542438</v>
+        <v>0.03767782325830066</v>
       </c>
       <c r="J4">
-        <v>0.5709480009542438</v>
+        <v>0.03767782325830066</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="N4">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="O4">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="P4">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="Q4">
-        <v>2166.44857417842</v>
+        <v>165.494017757273</v>
       </c>
       <c r="R4">
-        <v>2166.44857417842</v>
+        <v>1489.446159815457</v>
       </c>
       <c r="S4">
-        <v>0.1831362275882318</v>
+        <v>0.01209992263284625</v>
       </c>
       <c r="T4">
-        <v>0.1831362275882318</v>
+        <v>0.01209992263284625</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>10.7773960801211</v>
+        <v>0.8011370000000001</v>
       </c>
       <c r="H5">
-        <v>10.7773960801211</v>
+        <v>2.403411</v>
       </c>
       <c r="I5">
-        <v>0.5709480009542438</v>
+        <v>0.03767782325830066</v>
       </c>
       <c r="J5">
-        <v>0.5709480009542438</v>
+        <v>0.03767782325830066</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="N5">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="O5">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="P5">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="Q5">
-        <v>1433.615926588107</v>
+        <v>113.5807572826044</v>
       </c>
       <c r="R5">
-        <v>1433.615926588107</v>
+        <v>1022.226815543439</v>
       </c>
       <c r="S5">
-        <v>0.1211877428040584</v>
+        <v>0.008304338696491663</v>
       </c>
       <c r="T5">
-        <v>0.1211877428040584</v>
+        <v>0.008304338696491666</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>10.7773960801211</v>
+        <v>0.8011370000000001</v>
       </c>
       <c r="H6">
-        <v>10.7773960801211</v>
+        <v>2.403411</v>
       </c>
       <c r="I6">
-        <v>0.5709480009542438</v>
+        <v>0.03767782325830066</v>
       </c>
       <c r="J6">
-        <v>0.5709480009542438</v>
+        <v>0.03767782325830066</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="N6">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="O6">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="P6">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="Q6">
-        <v>166.7568509069978</v>
+        <v>12.47674367196067</v>
       </c>
       <c r="R6">
-        <v>166.7568509069978</v>
+        <v>112.290693047646</v>
       </c>
       <c r="S6">
-        <v>0.01409644381297264</v>
+        <v>0.0009122241104932234</v>
       </c>
       <c r="T6">
-        <v>0.01409644381297264</v>
+        <v>0.0009122241104932236</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.80805186819234</v>
+        <v>11.027086</v>
       </c>
       <c r="H7">
-        <v>1.80805186819234</v>
+        <v>33.08125800000001</v>
       </c>
       <c r="I7">
-        <v>0.09578413858892</v>
+        <v>0.5186086741245025</v>
       </c>
       <c r="J7">
-        <v>0.09578413858892</v>
+        <v>0.5186086741245026</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="N7">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="O7">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="P7">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="Q7">
-        <v>228.1138884678828</v>
+        <v>1399.688025438309</v>
       </c>
       <c r="R7">
-        <v>228.1138884678828</v>
+        <v>12597.19222894478</v>
       </c>
       <c r="S7">
-        <v>0.01928313346202245</v>
+        <v>0.1023367312452632</v>
       </c>
       <c r="T7">
-        <v>0.01928313346202245</v>
+        <v>0.1023367312452633</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.80805186819234</v>
+        <v>11.027086</v>
       </c>
       <c r="H8">
-        <v>1.80805186819234</v>
+        <v>33.08125800000001</v>
       </c>
       <c r="I8">
-        <v>0.09578413858892</v>
+        <v>0.5186086741245025</v>
       </c>
       <c r="J8">
-        <v>0.09578413858892</v>
+        <v>0.5186086741245026</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="N8">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="O8">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="P8">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="Q8">
-        <v>273.0502538220294</v>
+        <v>1680.466393638597</v>
       </c>
       <c r="R8">
-        <v>273.0502538220294</v>
+        <v>15124.19754274737</v>
       </c>
       <c r="S8">
-        <v>0.02308173571391564</v>
+        <v>0.1228655490130644</v>
       </c>
       <c r="T8">
-        <v>0.02308173571391564</v>
+        <v>0.1228655490130644</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.80805186819234</v>
+        <v>11.027086</v>
       </c>
       <c r="H9">
-        <v>1.80805186819234</v>
+        <v>33.08125800000001</v>
       </c>
       <c r="I9">
-        <v>0.09578413858892</v>
+        <v>0.5186086741245025</v>
       </c>
       <c r="J9">
-        <v>0.09578413858892</v>
+        <v>0.5186086741245026</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="N9">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="O9">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="P9">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="Q9">
-        <v>363.4506297036741</v>
+        <v>2277.908480440894</v>
       </c>
       <c r="R9">
-        <v>363.4506297036741</v>
+        <v>20501.17632396805</v>
       </c>
       <c r="S9">
-        <v>0.03072354360580199</v>
+        <v>0.1665469045440942</v>
       </c>
       <c r="T9">
-        <v>0.03072354360580199</v>
+        <v>0.1665469045440943</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.80805186819234</v>
+        <v>11.027086</v>
       </c>
       <c r="H10">
-        <v>1.80805186819234</v>
+        <v>33.08125800000001</v>
       </c>
       <c r="I10">
-        <v>0.09578413858892</v>
+        <v>0.5186086741245025</v>
       </c>
       <c r="J10">
-        <v>0.09578413858892</v>
+        <v>0.5186086741245026</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="N10">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="O10">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="P10">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="Q10">
-        <v>240.5081835230087</v>
+        <v>1563.359049077005</v>
       </c>
       <c r="R10">
-        <v>240.5081835230087</v>
+        <v>14070.23144169304</v>
       </c>
       <c r="S10">
-        <v>0.02033085943487275</v>
+        <v>0.1143033675630279</v>
       </c>
       <c r="T10">
-        <v>0.02033085943487275</v>
+        <v>0.1143033675630279</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.80805186819234</v>
+        <v>11.027086</v>
       </c>
       <c r="H11">
-        <v>1.80805186819234</v>
+        <v>33.08125800000001</v>
       </c>
       <c r="I11">
-        <v>0.09578413858892</v>
+        <v>0.5186086741245025</v>
       </c>
       <c r="J11">
-        <v>0.09578413858892</v>
+        <v>0.5186086741245026</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="N11">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="O11">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="P11">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="Q11">
-        <v>27.9756848105819</v>
+        <v>171.7335804870654</v>
       </c>
       <c r="R11">
-        <v>27.9756848105819</v>
+        <v>1545.602224383588</v>
       </c>
       <c r="S11">
-        <v>0.002364866372307173</v>
+        <v>0.01255612175905279</v>
       </c>
       <c r="T11">
-        <v>0.002364866372307173</v>
+        <v>0.0125561217590528</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.00393162107095</v>
+        <v>2.830399</v>
       </c>
       <c r="H12">
-        <v>5.00393162107095</v>
+        <v>8.491197</v>
       </c>
       <c r="I12">
-        <v>0.2650904480751055</v>
+        <v>0.1331149020360699</v>
       </c>
       <c r="J12">
-        <v>0.2650904480751055</v>
+        <v>0.1331149020360699</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="N12">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="O12">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="P12">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="Q12">
-        <v>631.3238684082164</v>
+        <v>359.2676784703196</v>
       </c>
       <c r="R12">
-        <v>631.3238684082164</v>
+        <v>3233.409106232877</v>
       </c>
       <c r="S12">
-        <v>0.05336765110639002</v>
+        <v>0.02626748188776815</v>
       </c>
       <c r="T12">
-        <v>0.05336765110639002</v>
+        <v>0.02626748188776816</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.00393162107095</v>
+        <v>2.830399</v>
       </c>
       <c r="H13">
-        <v>5.00393162107095</v>
+        <v>8.491197</v>
       </c>
       <c r="I13">
-        <v>0.2650904480751055</v>
+        <v>0.1331149020360699</v>
       </c>
       <c r="J13">
-        <v>0.2650904480751055</v>
+        <v>0.1331149020360699</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="N13">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="O13">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="P13">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="Q13">
-        <v>755.6889397246832</v>
+        <v>431.3370186909116</v>
       </c>
       <c r="R13">
-        <v>755.6889397246832</v>
+        <v>3882.033168218205</v>
       </c>
       <c r="S13">
-        <v>0.06388059393646683</v>
+        <v>0.03153675658837052</v>
       </c>
       <c r="T13">
-        <v>0.06388059393646683</v>
+        <v>0.03153675658837053</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.00393162107095</v>
+        <v>2.830399</v>
       </c>
       <c r="H14">
-        <v>5.00393162107095</v>
+        <v>8.491197</v>
       </c>
       <c r="I14">
-        <v>0.2650904480751055</v>
+        <v>0.1331149020360699</v>
       </c>
       <c r="J14">
-        <v>0.2650904480751055</v>
+        <v>0.1331149020360699</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="N14">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="O14">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="P14">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="Q14">
-        <v>1005.879383587956</v>
+        <v>584.686642067671</v>
       </c>
       <c r="R14">
-        <v>1005.879383587956</v>
+        <v>5262.179778609038</v>
       </c>
       <c r="S14">
-        <v>0.08502992312611582</v>
+        <v>0.04274875448279806</v>
       </c>
       <c r="T14">
-        <v>0.08502992312611582</v>
+        <v>0.04274875448279807</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.00393162107095</v>
+        <v>2.830399</v>
       </c>
       <c r="H15">
-        <v>5.00393162107095</v>
+        <v>8.491197</v>
       </c>
       <c r="I15">
-        <v>0.2650904480751055</v>
+        <v>0.1331149020360699</v>
       </c>
       <c r="J15">
-        <v>0.2650904480751055</v>
+        <v>0.1331149020360699</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="N15">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="O15">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="P15">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="Q15">
-        <v>665.6260950413683</v>
+        <v>401.2782605620836</v>
       </c>
       <c r="R15">
-        <v>665.6260950413683</v>
+        <v>3611.504345058753</v>
       </c>
       <c r="S15">
-        <v>0.05626731854292465</v>
+        <v>0.02933904181458515</v>
       </c>
       <c r="T15">
-        <v>0.05626731854292465</v>
+        <v>0.02933904181458516</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.00393162107095</v>
+        <v>2.830399</v>
       </c>
       <c r="H16">
-        <v>5.00393162107095</v>
+        <v>8.491197</v>
       </c>
       <c r="I16">
-        <v>0.2650904480751055</v>
+        <v>0.1331149020360699</v>
       </c>
       <c r="J16">
-        <v>0.2650904480751055</v>
+        <v>0.1331149020360699</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="N16">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="O16">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="P16">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="Q16">
-        <v>77.42499886617917</v>
+        <v>44.08005473767133</v>
       </c>
       <c r="R16">
-        <v>77.42499886617917</v>
+        <v>396.7204926390419</v>
       </c>
       <c r="S16">
-        <v>0.006544961363208166</v>
+        <v>0.003222867262547989</v>
       </c>
       <c r="T16">
-        <v>0.006544961363208166</v>
+        <v>0.003222867262547991</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.28693852282101</v>
+        <v>5.149227666666667</v>
       </c>
       <c r="H17">
-        <v>1.28693852282101</v>
+        <v>15.447683</v>
       </c>
       <c r="I17">
-        <v>0.0681774123817306</v>
+        <v>0.2421704277063955</v>
       </c>
       <c r="J17">
-        <v>0.0681774123817306</v>
+        <v>0.2421704277063955</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="N17">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="O17">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="P17">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="Q17">
-        <v>162.3673279646112</v>
+        <v>653.600806712578</v>
       </c>
       <c r="R17">
-        <v>162.3673279646112</v>
+        <v>5882.407260413202</v>
       </c>
       <c r="S17">
-        <v>0.01372538461398587</v>
+        <v>0.04778734180946267</v>
       </c>
       <c r="T17">
-        <v>0.01372538461398587</v>
+        <v>0.04778734180946269</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.28693852282101</v>
+        <v>5.149227666666667</v>
       </c>
       <c r="H18">
-        <v>1.28693852282101</v>
+        <v>15.447683</v>
       </c>
       <c r="I18">
-        <v>0.0681774123817306</v>
+        <v>0.2421704277063955</v>
       </c>
       <c r="J18">
-        <v>0.0681774123817306</v>
+        <v>0.2421704277063955</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="N18">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="O18">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="P18">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="Q18">
-        <v>194.3522177054285</v>
+        <v>784.7135722916661</v>
       </c>
       <c r="R18">
-        <v>194.3522177054285</v>
+        <v>7062.422150624995</v>
       </c>
       <c r="S18">
-        <v>0.01642916079255507</v>
+        <v>0.05737351502094572</v>
       </c>
       <c r="T18">
-        <v>0.01642916079255507</v>
+        <v>0.05737351502094575</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.28693852282101</v>
+        <v>5.149227666666667</v>
       </c>
       <c r="H19">
-        <v>1.28693852282101</v>
+        <v>15.447683</v>
       </c>
       <c r="I19">
-        <v>0.0681774123817306</v>
+        <v>0.2421704277063955</v>
       </c>
       <c r="J19">
-        <v>0.0681774123817306</v>
+        <v>0.2421704277063955</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="N19">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="O19">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="P19">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="Q19">
-        <v>258.6975654502929</v>
+        <v>1063.696190418836</v>
       </c>
       <c r="R19">
-        <v>258.6975654502929</v>
+        <v>9573.265713769521</v>
       </c>
       <c r="S19">
-        <v>0.02186846103226477</v>
+        <v>0.07777103839365561</v>
       </c>
       <c r="T19">
-        <v>0.02186846103226477</v>
+        <v>0.07777103839365562</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.28693852282101</v>
+        <v>5.149227666666667</v>
       </c>
       <c r="H20">
-        <v>1.28693852282101</v>
+        <v>15.447683</v>
       </c>
       <c r="I20">
-        <v>0.0681774123817306</v>
+        <v>0.2421704277063955</v>
       </c>
       <c r="J20">
-        <v>0.0681774123817306</v>
+        <v>0.2421704277063955</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="N20">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="O20">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="P20">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="Q20">
-        <v>171.1893623598958</v>
+        <v>730.0289186500407</v>
       </c>
       <c r="R20">
-        <v>171.1893623598958</v>
+        <v>6570.260267850367</v>
       </c>
       <c r="S20">
-        <v>0.01447113695635049</v>
+        <v>0.05337530356149506</v>
       </c>
       <c r="T20">
-        <v>0.01447113695635049</v>
+        <v>0.05337530356149509</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.149227666666667</v>
+      </c>
+      <c r="H21">
+        <v>15.447683</v>
+      </c>
+      <c r="I21">
+        <v>0.2421704277063955</v>
+      </c>
+      <c r="J21">
+        <v>0.2421704277063955</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>15.57379533333333</v>
+      </c>
+      <c r="N21">
+        <v>46.721386</v>
+      </c>
+      <c r="O21">
+        <v>0.02421116804544314</v>
+      </c>
+      <c r="P21">
+        <v>0.02421116804544315</v>
+      </c>
+      <c r="Q21">
+        <v>80.19301780540421</v>
+      </c>
+      <c r="R21">
+        <v>721.7371602486379</v>
+      </c>
+      <c r="S21">
+        <v>0.005863228920836381</v>
+      </c>
+      <c r="T21">
+        <v>0.005863228920836383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.454976333333333</v>
+      </c>
+      <c r="H22">
+        <v>4.364929</v>
+      </c>
+      <c r="I22">
+        <v>0.06842817287473138</v>
+      </c>
+      <c r="J22">
+        <v>0.06842817287473139</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>126.9318136666667</v>
+      </c>
+      <c r="N22">
+        <v>380.795441</v>
+      </c>
+      <c r="O22">
+        <v>0.1973293860115714</v>
+      </c>
+      <c r="P22">
+        <v>0.1973293860115715</v>
+      </c>
+      <c r="Q22">
+        <v>184.6827848320765</v>
+      </c>
+      <c r="R22">
+        <v>1662.145063488689</v>
+      </c>
+      <c r="S22">
+        <v>0.01350288933926441</v>
+      </c>
+      <c r="T22">
+        <v>0.01350288933926442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.454976333333333</v>
+      </c>
+      <c r="H23">
+        <v>4.364929</v>
+      </c>
+      <c r="I23">
+        <v>0.06842817287473138</v>
+      </c>
+      <c r="J23">
+        <v>0.06842817287473139</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>152.3944216666667</v>
+      </c>
+      <c r="N23">
+        <v>457.183265</v>
+      </c>
+      <c r="O23">
+        <v>0.2369137948193439</v>
+      </c>
+      <c r="P23">
+        <v>0.2369137948193439</v>
+      </c>
+      <c r="Q23">
+        <v>221.7302768570206</v>
+      </c>
+      <c r="R23">
+        <v>1995.572491713185</v>
+      </c>
+      <c r="S23">
+        <v>0.0162115781083067</v>
+      </c>
+      <c r="T23">
+        <v>0.01621157810830671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.454976333333333</v>
+      </c>
+      <c r="H24">
+        <v>4.364929</v>
+      </c>
+      <c r="I24">
+        <v>0.06842817287473138</v>
+      </c>
+      <c r="J24">
+        <v>0.06842817287473139</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>206.573929</v>
+      </c>
+      <c r="N24">
+        <v>619.7217869999999</v>
+      </c>
+      <c r="O24">
+        <v>0.321141764212203</v>
+      </c>
+      <c r="P24">
+        <v>0.321141764212203</v>
+      </c>
+      <c r="Q24">
+        <v>300.5601777786803</v>
+      </c>
+      <c r="R24">
+        <v>2705.041600008123</v>
+      </c>
+      <c r="S24">
+        <v>0.02197514415880885</v>
+      </c>
+      <c r="T24">
+        <v>0.02197514415880886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.28693852282101</v>
-      </c>
-      <c r="H21">
-        <v>1.28693852282101</v>
-      </c>
-      <c r="I21">
-        <v>0.0681774123817306</v>
-      </c>
-      <c r="J21">
-        <v>0.0681774123817306</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>15.4728331098994</v>
-      </c>
-      <c r="N21">
-        <v>15.4728331098994</v>
-      </c>
-      <c r="O21">
-        <v>0.02468954053506238</v>
-      </c>
-      <c r="P21">
-        <v>0.02468954053506238</v>
-      </c>
-      <c r="Q21">
-        <v>19.91258498630995</v>
-      </c>
-      <c r="R21">
-        <v>19.91258498630995</v>
-      </c>
-      <c r="S21">
-        <v>0.001683268986574402</v>
-      </c>
-      <c r="T21">
-        <v>0.001683268986574402</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.454976333333333</v>
+      </c>
+      <c r="H25">
+        <v>4.364929</v>
+      </c>
+      <c r="I25">
+        <v>0.06842817287473138</v>
+      </c>
+      <c r="J25">
+        <v>0.06842817287473139</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>141.7744496666667</v>
+      </c>
+      <c r="N25">
+        <v>425.323349</v>
+      </c>
+      <c r="O25">
+        <v>0.2204038869114384</v>
+      </c>
+      <c r="P25">
+        <v>0.2204038869114385</v>
+      </c>
+      <c r="Q25">
+        <v>206.2784689363579</v>
+      </c>
+      <c r="R25">
+        <v>1856.506220427221</v>
+      </c>
+      <c r="S25">
+        <v>0.01508183527583865</v>
+      </c>
+      <c r="T25">
+        <v>0.01508183527583866</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.454976333333333</v>
+      </c>
+      <c r="H26">
+        <v>4.364929</v>
+      </c>
+      <c r="I26">
+        <v>0.06842817287473138</v>
+      </c>
+      <c r="J26">
+        <v>0.06842817287473139</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>15.57379533333333</v>
+      </c>
+      <c r="N26">
+        <v>46.721386</v>
+      </c>
+      <c r="O26">
+        <v>0.02421116804544314</v>
+      </c>
+      <c r="P26">
+        <v>0.02421116804544315</v>
+      </c>
+      <c r="Q26">
+        <v>22.65950363017711</v>
+      </c>
+      <c r="R26">
+        <v>203.935532671594</v>
+      </c>
+      <c r="S26">
+        <v>0.001656725992512756</v>
+      </c>
+      <c r="T26">
+        <v>0.001656725992512756</v>
       </c>
     </row>
   </sheetData>
